--- a/python/syntax.xlsx
+++ b/python/syntax.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rex/dev/raqb-demo/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A91776FC-6B60-BD46-8D12-C1B3A3B6559D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6CE3B4-7DD8-554F-AB26-1DCB11AD6C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="-27840" windowWidth="58300" windowHeight="27280" xr2:uid="{9505AF4C-A5EF-A545-9E4E-9D5C44791F24}"/>
+    <workbookView xWindow="880" yWindow="-26320" windowWidth="59400" windowHeight="27300" xr2:uid="{9505AF4C-A5EF-A545-9E4E-9D5C44791F24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,9 +441,6 @@
     <t>Include Rule Name as an attribute - number</t>
   </si>
   <si>
-    <t>RULE_NAME(NUBER_FIELD_02)</t>
-  </si>
-  <si>
     <t>RULE_NAME(RULES.NUMBER_RULE_01,number)</t>
   </si>
   <si>
@@ -565,6 +562,9 @@
   </si>
   <si>
     <t>RULE_REF()</t>
+  </si>
+  <si>
+    <t>RULE_NAME(NUBER_FIELD_02, number)</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:AE72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1253,7 +1253,7 @@
     <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14.83203125" customWidth="1"/>
     <col min="28" max="28" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="34.1640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1325,7 +1325,7 @@
         <v>128</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U2" s="7" t="s">
         <v>95</v>
@@ -1420,10 +1420,10 @@
         <v>107</v>
       </c>
       <c r="X3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z3" t="s">
         <v>10</v>
@@ -1432,10 +1432,10 @@
         <v>22</v>
       </c>
       <c r="AB3" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="AC3" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="AD3" t="s">
         <v>10</v>
@@ -1500,10 +1500,10 @@
         <v>107</v>
       </c>
       <c r="X4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z4" t="s">
         <v>15</v>
@@ -1565,7 +1565,7 @@
         <v>72</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
@@ -1621,10 +1621,10 @@
         <v>107</v>
       </c>
       <c r="X6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z6" t="s">
         <v>10</v>
@@ -1695,10 +1695,10 @@
         <v>107</v>
       </c>
       <c r="X7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z7" t="s">
         <v>15</v>
@@ -1760,7 +1760,7 @@
         <v>72</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -1804,16 +1804,16 @@
         <v>5</v>
       </c>
       <c r="T9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W9" t="s">
         <v>107</v>
       </c>
       <c r="X9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z9" t="s">
         <v>10</v>
@@ -1872,16 +1872,16 @@
         <v>6</v>
       </c>
       <c r="T10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="W10" t="s">
         <v>107</v>
       </c>
       <c r="X10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z10" t="s">
         <v>15</v>
@@ -1937,7 +1937,7 @@
         <v>72</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -1981,7 +1981,7 @@
         <v>7</v>
       </c>
       <c r="T12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W12" t="s">
         <v>107</v>
@@ -1990,7 +1990,7 @@
         <v>88</v>
       </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z12" t="s">
         <v>12</v>
@@ -2002,7 +2002,7 @@
         <v>129</v>
       </c>
       <c r="AC12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD12" t="s">
         <v>12</v>
@@ -2055,7 +2055,7 @@
         <v>8</v>
       </c>
       <c r="T13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W13" t="s">
         <v>107</v>
@@ -2064,7 +2064,7 @@
         <v>88</v>
       </c>
       <c r="Y13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Z13" t="s">
         <v>10</v>
@@ -2129,7 +2129,7 @@
         <v>9</v>
       </c>
       <c r="T14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W14" t="s">
         <v>107</v>
@@ -2138,7 +2138,7 @@
         <v>88</v>
       </c>
       <c r="Y14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z14" t="s">
         <v>12</v>
@@ -2150,13 +2150,13 @@
         <v>129</v>
       </c>
       <c r="AC14" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE14" t="s">
         <v>148</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
@@ -2215,7 +2215,7 @@
         <v>10</v>
       </c>
       <c r="T15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W15" t="s">
         <v>107</v>
@@ -2224,7 +2224,7 @@
         <v>88</v>
       </c>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z15" t="s">
         <v>12</v>
@@ -2236,13 +2236,13 @@
         <v>129</v>
       </c>
       <c r="AC15" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD15" t="s">
         <v>13</v>
       </c>
       <c r="AE15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
@@ -2295,7 +2295,7 @@
         <v>72</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
@@ -2342,7 +2342,7 @@
         <v>11</v>
       </c>
       <c r="T17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W17" t="s">
         <v>107</v>
@@ -2351,7 +2351,7 @@
         <v>88</v>
       </c>
       <c r="Y17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z17" t="s">
         <v>12</v>
@@ -2363,7 +2363,7 @@
         <v>129</v>
       </c>
       <c r="AC17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD17" t="s">
         <v>12</v>
@@ -2407,7 +2407,7 @@
         <v>72</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
@@ -2448,7 +2448,7 @@
         <v>12</v>
       </c>
       <c r="T19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="W19" t="s">
         <v>107</v>
@@ -2457,7 +2457,7 @@
         <v>89</v>
       </c>
       <c r="Y19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z19" t="s">
         <v>10</v>
@@ -2580,7 +2580,7 @@
         <v>121</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
@@ -2621,7 +2621,7 @@
         <v>13</v>
       </c>
       <c r="T23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V23" t="s">
         <v>72</v>
@@ -2689,7 +2689,7 @@
         <v>14</v>
       </c>
       <c r="T24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W24" t="s">
         <v>90</v>
@@ -2754,7 +2754,7 @@
         <v>15</v>
       </c>
       <c r="T25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V25" t="s">
         <v>72</v>
@@ -2822,7 +2822,7 @@
         <v>16</v>
       </c>
       <c r="T26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W26" t="s">
         <v>90</v>
@@ -2887,7 +2887,7 @@
         <v>17</v>
       </c>
       <c r="T27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V27" t="s">
         <v>72</v>
@@ -2949,7 +2949,7 @@
         <v>18</v>
       </c>
       <c r="T28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W28" t="s">
         <v>90</v>
@@ -3009,7 +3009,7 @@
         <v>19</v>
       </c>
       <c r="T29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V29" t="s">
         <v>72</v>
@@ -3080,7 +3080,7 @@
         <v>20</v>
       </c>
       <c r="T30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W30" t="s">
         <v>90</v>
@@ -3148,7 +3148,7 @@
         <v>21</v>
       </c>
       <c r="T31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V31" t="s">
         <v>72</v>
@@ -3219,7 +3219,7 @@
         <v>22</v>
       </c>
       <c r="T32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W32" t="s">
         <v>90</v>
@@ -3260,7 +3260,7 @@
         <v>23</v>
       </c>
       <c r="T33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V33" t="s">
         <v>72</v>
@@ -3295,7 +3295,7 @@
         <v>24</v>
       </c>
       <c r="T34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W34" t="s">
         <v>90</v>
@@ -3327,7 +3327,7 @@
         <v>25</v>
       </c>
       <c r="T35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V35" t="s">
         <v>72</v>
@@ -3368,7 +3368,7 @@
         <v>26</v>
       </c>
       <c r="T36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W36" t="s">
         <v>90</v>
@@ -3439,7 +3439,7 @@
         <v>27</v>
       </c>
       <c r="T37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V37" t="s">
         <v>72</v>
@@ -3480,7 +3480,7 @@
         <v>28</v>
       </c>
       <c r="T38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W38" t="s">
         <v>90</v>
@@ -3512,7 +3512,7 @@
         <v>69</v>
       </c>
       <c r="E39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F39" t="s">
         <v>61</v>
@@ -3533,7 +3533,7 @@
         <v>29</v>
       </c>
       <c r="T39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V39" t="s">
         <v>72</v>
@@ -3592,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="T40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W40" t="s">
         <v>90</v>
@@ -3648,7 +3648,7 @@
         <v>31</v>
       </c>
       <c r="T41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V41" t="s">
         <v>72</v>
@@ -3707,7 +3707,7 @@
         <v>32</v>
       </c>
       <c r="T42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W42" t="s">
         <v>90</v>
@@ -3760,7 +3760,7 @@
         <v>33</v>
       </c>
       <c r="T43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V43" t="s">
         <v>72</v>
@@ -3772,7 +3772,7 @@
         <v>9</v>
       </c>
       <c r="Y43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z43" t="s">
         <v>13</v>
@@ -3784,7 +3784,7 @@
         <v>18</v>
       </c>
       <c r="AC43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AD43" t="s">
         <v>13</v>
@@ -3819,7 +3819,7 @@
         <v>34</v>
       </c>
       <c r="T44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W44" t="s">
         <v>90</v>
@@ -3828,7 +3828,7 @@
         <v>9</v>
       </c>
       <c r="Y44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z44" t="s">
         <v>13</v>
@@ -3840,7 +3840,7 @@
         <v>18</v>
       </c>
       <c r="AC44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AD44" t="s">
         <v>13</v>
@@ -3866,7 +3866,7 @@
         <v>35</v>
       </c>
       <c r="T45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V45" t="s">
         <v>72</v>
@@ -3878,7 +3878,7 @@
         <v>9</v>
       </c>
       <c r="Y45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z45" t="s">
         <v>13</v>
@@ -3890,7 +3890,7 @@
         <v>18</v>
       </c>
       <c r="AC45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AD45" t="s">
         <v>13</v>
@@ -3901,7 +3901,7 @@
         <v>36</v>
       </c>
       <c r="T46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W46" t="s">
         <v>90</v>
@@ -3910,7 +3910,7 @@
         <v>9</v>
       </c>
       <c r="Y46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z46" t="s">
         <v>13</v>
@@ -3922,7 +3922,7 @@
         <v>18</v>
       </c>
       <c r="AC46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AD46" t="s">
         <v>13</v>
@@ -3934,7 +3934,7 @@
         <v>37</v>
       </c>
       <c r="T47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V47" t="s">
         <v>72</v>
@@ -3946,7 +3946,7 @@
         <v>9</v>
       </c>
       <c r="Y47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z47" t="s">
         <v>13</v>
@@ -3958,7 +3958,7 @@
         <v>18</v>
       </c>
       <c r="AC47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AD47" t="s">
         <v>13</v>
@@ -3970,7 +3970,7 @@
         <v>38</v>
       </c>
       <c r="T48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W48" t="s">
         <v>90</v>
@@ -3979,7 +3979,7 @@
         <v>9</v>
       </c>
       <c r="Y48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z48" t="s">
         <v>13</v>
@@ -3991,7 +3991,7 @@
         <v>18</v>
       </c>
       <c r="AC48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AD48" t="s">
         <v>13</v>
@@ -4002,7 +4002,7 @@
         <v>39</v>
       </c>
       <c r="T49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V49" t="s">
         <v>72</v>
@@ -4014,7 +4014,7 @@
         <v>9</v>
       </c>
       <c r="Y49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z49" t="s">
         <v>13</v>
@@ -4026,7 +4026,7 @@
         <v>18</v>
       </c>
       <c r="AC49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AD49" t="s">
         <v>13</v>
@@ -4037,7 +4037,7 @@
         <v>40</v>
       </c>
       <c r="T50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W50" t="s">
         <v>90</v>
@@ -4046,7 +4046,7 @@
         <v>9</v>
       </c>
       <c r="Y50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z50" t="s">
         <v>13</v>
@@ -4058,7 +4058,7 @@
         <v>18</v>
       </c>
       <c r="AC50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AD50" t="s">
         <v>13</v>
@@ -4069,7 +4069,7 @@
         <v>41</v>
       </c>
       <c r="T51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V51" t="s">
         <v>72</v>
@@ -4081,7 +4081,7 @@
         <v>9</v>
       </c>
       <c r="Y51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z51" t="s">
         <v>13</v>
@@ -4093,7 +4093,7 @@
         <v>18</v>
       </c>
       <c r="AC51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AD51" t="s">
         <v>13</v>
@@ -4104,7 +4104,7 @@
         <v>42</v>
       </c>
       <c r="T52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W52" t="s">
         <v>90</v>
@@ -4113,7 +4113,7 @@
         <v>9</v>
       </c>
       <c r="Y52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z52" t="s">
         <v>13</v>
@@ -4125,7 +4125,7 @@
         <v>18</v>
       </c>
       <c r="AC52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AD52" t="s">
         <v>13</v>
@@ -4136,7 +4136,7 @@
         <v>43</v>
       </c>
       <c r="T53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V53" t="s">
         <v>72</v>
@@ -4148,7 +4148,7 @@
         <v>9</v>
       </c>
       <c r="Y53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z53" t="s">
         <v>14</v>
@@ -4160,7 +4160,7 @@
         <v>18</v>
       </c>
       <c r="AC53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AD53" t="s">
         <v>14</v>
@@ -4171,7 +4171,7 @@
         <v>44</v>
       </c>
       <c r="T54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W54" t="s">
         <v>90</v>
@@ -4180,7 +4180,7 @@
         <v>9</v>
       </c>
       <c r="Y54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z54" t="s">
         <v>14</v>
@@ -4192,7 +4192,7 @@
         <v>18</v>
       </c>
       <c r="AC54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AD54" t="s">
         <v>14</v>
@@ -4203,7 +4203,7 @@
         <v>45</v>
       </c>
       <c r="T55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V55" t="s">
         <v>72</v>
@@ -4215,7 +4215,7 @@
         <v>9</v>
       </c>
       <c r="Y55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z55" t="s">
         <v>14</v>
@@ -4227,7 +4227,7 @@
         <v>18</v>
       </c>
       <c r="AC55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AD55" t="s">
         <v>14</v>
@@ -4238,7 +4238,7 @@
         <v>46</v>
       </c>
       <c r="T56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W56" t="s">
         <v>90</v>
@@ -4247,7 +4247,7 @@
         <v>9</v>
       </c>
       <c r="Y56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z56" t="s">
         <v>14</v>
@@ -4259,7 +4259,7 @@
         <v>18</v>
       </c>
       <c r="AC56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AD56" t="s">
         <v>14</v>
@@ -4270,7 +4270,7 @@
         <v>47</v>
       </c>
       <c r="T57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V57" t="s">
         <v>72</v>
@@ -4282,7 +4282,7 @@
         <v>9</v>
       </c>
       <c r="Y57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z57" t="s">
         <v>14</v>
@@ -4294,7 +4294,7 @@
         <v>18</v>
       </c>
       <c r="AC57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AD57" t="s">
         <v>14</v>
@@ -4305,7 +4305,7 @@
         <v>48</v>
       </c>
       <c r="T58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W58" t="s">
         <v>90</v>
@@ -4314,7 +4314,7 @@
         <v>9</v>
       </c>
       <c r="Y58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z58" t="s">
         <v>14</v>
@@ -4326,7 +4326,7 @@
         <v>18</v>
       </c>
       <c r="AC58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AD58" t="s">
         <v>14</v>
@@ -4337,7 +4337,7 @@
         <v>49</v>
       </c>
       <c r="T59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V59" t="s">
         <v>72</v>
@@ -4349,7 +4349,7 @@
         <v>9</v>
       </c>
       <c r="Y59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z59" t="s">
         <v>14</v>
@@ -4361,7 +4361,7 @@
         <v>18</v>
       </c>
       <c r="AC59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AD59" t="s">
         <v>14</v>
@@ -4372,7 +4372,7 @@
         <v>50</v>
       </c>
       <c r="T60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W60" t="s">
         <v>90</v>
@@ -4381,7 +4381,7 @@
         <v>9</v>
       </c>
       <c r="Y60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z60" t="s">
         <v>14</v>
@@ -4393,7 +4393,7 @@
         <v>18</v>
       </c>
       <c r="AC60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AD60" t="s">
         <v>14</v>
@@ -4404,7 +4404,7 @@
         <v>51</v>
       </c>
       <c r="T61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V61" t="s">
         <v>72</v>
@@ -4416,7 +4416,7 @@
         <v>9</v>
       </c>
       <c r="Y61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z61" t="s">
         <v>14</v>
@@ -4428,7 +4428,7 @@
         <v>18</v>
       </c>
       <c r="AC61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AD61" t="s">
         <v>14</v>
@@ -4440,7 +4440,7 @@
         <v>52</v>
       </c>
       <c r="T62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W62" t="s">
         <v>90</v>
@@ -4449,7 +4449,7 @@
         <v>9</v>
       </c>
       <c r="Y62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z62" t="s">
         <v>14</v>
@@ -4461,7 +4461,7 @@
         <v>18</v>
       </c>
       <c r="AC62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AD62" t="s">
         <v>14</v>
@@ -4469,7 +4469,7 @@
     </row>
     <row r="65" spans="19:30" x14ac:dyDescent="0.2">
       <c r="T65" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="19:30" x14ac:dyDescent="0.2">
@@ -4477,7 +4477,7 @@
         <v>53</v>
       </c>
       <c r="T66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W66" t="s">
         <v>90</v>
@@ -4544,7 +4544,7 @@
         <v>9</v>
       </c>
       <c r="Y68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z68" t="s">
         <v>10</v>
@@ -4567,7 +4567,7 @@
         <v>54</v>
       </c>
       <c r="T70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W70" t="s">
         <v>90</v>
@@ -4634,7 +4634,7 @@
         <v>9</v>
       </c>
       <c r="Y72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z72" t="s">
         <v>10</v>
